--- a/Thermodynamic Calculations/SI6Thermodynamic_parameters_calculation.xlsx
+++ b/Thermodynamic Calculations/SI6Thermodynamic_parameters_calculation.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smalla2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{97258966-6E75-448A-AECA-A57BC6798EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5E69002-0602-4F44-88D8-F5DD07FD36BD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F87C914-17EB-4372-9401-33A833E42DAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="2" activeTab="2" xr2:uid="{2FE56F31-9A7C-4B28-837C-C8AF9FBB3420}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="2" xr2:uid="{2FE56F31-9A7C-4B28-837C-C8AF9FBB3420}"/>
   </bookViews>
   <sheets>
-    <sheet name="MDF" sheetId="1" r:id="rId1"/>
-    <sheet name="K_cat_prediction" sheetId="2" r:id="rId2"/>
-    <sheet name="Enzyme_saturation" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="MDF" sheetId="1" r:id="rId2"/>
+    <sheet name="K_cat_prediction" sheetId="2" r:id="rId3"/>
+    <sheet name="Enzyme_saturation" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -320,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +394,110 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A711C7C-EF04-8546-5327-EE06D27BA82C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6972EF2C-53B0-5856-09E6-8D4EFEEBA4B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="352425"/>
+          <a:ext cx="5438775" cy="3362325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>S16.This workbook consists details on the caculation and incorporation of thermodynamic parameters. Starting with the calculation of Max/Min Driving force by obtaining the gibbs energy from equilibrator.Followed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> by the use of predicted K_cat values of theb select enzymes. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -479,7 +584,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1648,6 +1753,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A3E278-A24A-4F5C-9361-810B3F24C4EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E574B59-D58E-417D-843E-6BAC99327A51}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -1655,7 +1775,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
@@ -1665,7 +1785,7 @@
     <col min="6" max="13" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1699,7 +1819,7 @@
         <v>28.186252</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +1836,7 @@
         <v>18.158125999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +1853,7 @@
         <v>71.647844000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +1870,7 @@
         <v>33.256610000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1887,7 @@
         <v>11.272084</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1784,7 +1904,7 @@
         <v>29.955417000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1808,13 +1928,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5E5F4B-411E-43EB-900A-81C790C2A072}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
@@ -1823,7 +1943,7 @@
     <col min="5" max="8" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +1966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1872,7 +1992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +2006,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1900,7 +2020,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1914,7 +2034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +2060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1954,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1968,7 +2088,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1982,7 +2102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1996,7 +2116,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
@@ -2010,7 +2130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
@@ -2024,7 +2144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -2050,7 +2170,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
@@ -2064,7 +2184,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
@@ -2078,7 +2198,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
@@ -2092,7 +2212,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
@@ -2106,7 +2226,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
@@ -2120,7 +2240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -2146,7 +2266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
@@ -2160,7 +2280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
@@ -2174,7 +2294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
@@ -2188,7 +2308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
@@ -2208,15 +2328,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A593828D-543D-453B-9936-24C60D9C75D0}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
@@ -2231,7 +2351,7 @@
     <col min="13" max="14" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2269,7 +2389,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2308,7 +2428,7 @@
         <v>2.5787297069699999</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2347,7 +2467,7 @@
         <v>2.5870441667699997</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2386,7 +2506,7 @@
         <v>2.5953586265699999</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -2425,7 +2545,7 @@
         <v>2.6036730863699997</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2443,7 +2563,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2465,7 +2585,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2486,7 +2606,7 @@
         <v>4.9445827269449126E-16</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2507,7 +2627,7 @@
         <v>1.0049730197741712E-12</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
@@ -2528,10 +2648,10 @@
         <v>1.2620687225929534E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2548,94 +2668,94 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="3">
-        <f>1-F7</f>
+        <f t="shared" ref="F13:I16" si="0">1-F7</f>
         <v>0.9999971483363177</v>
       </c>
       <c r="G13" s="3">
-        <f>1-G7</f>
+        <f t="shared" si="0"/>
         <v>0.99999717888587258</v>
       </c>
       <c r="H13" s="3">
-        <f>1-H7</f>
+        <f t="shared" si="0"/>
         <v>0.99999720890479415</v>
       </c>
       <c r="I13" s="3">
-        <f>1-I7</f>
+        <f t="shared" si="0"/>
         <v>0.99999723841561428</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="3">
-        <f>1-F8</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="G14" s="3">
-        <f>1-G8</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="H14" s="3">
-        <f>1-H8</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="I14" s="3">
-        <f>1-I8</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="3">
-        <f>1-F9</f>
+        <f t="shared" si="0"/>
         <v>0.999999999999028</v>
       </c>
       <c r="G15" s="3">
-        <f>1-G9</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999909051</v>
       </c>
       <c r="H15" s="3">
-        <f>1-H9</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999900613</v>
       </c>
       <c r="I15" s="3">
-        <f>1-I9</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999899503</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="3">
-        <f>1-F10</f>
+        <f t="shared" si="0"/>
         <v>0.99999998885064612</v>
       </c>
       <c r="G16" s="3">
-        <f>1-G10</f>
+        <f t="shared" si="0"/>
         <v>0.99999998837726434</v>
       </c>
       <c r="H16" s="3">
-        <f>1-H10</f>
+        <f t="shared" si="0"/>
         <v>0.99999998788696465</v>
       </c>
       <c r="I16" s="3">
-        <f>1-I10</f>
+        <f t="shared" si="0"/>
         <v>0.99999998737931273</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
@@ -2652,7 +2772,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
@@ -2673,7 +2793,7 @@
         <v>84.118067700216173</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
@@ -2691,7 +2811,7 @@
         <v>9.9359999999999964</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
@@ -2708,7 +2828,7 @@
         <v>20.744</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" s="2" t="s">
         <v>55</v>
       </c>
@@ -2729,17 +2849,17 @@
         <v>45.399999427020795</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -2762,7 +2882,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2790,7 +2910,7 @@
         <v>3.9806998496184421E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2818,7 +2938,7 @@
         <v>4.8024973580917892E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2846,7 +2966,7 @@
         <v>4.7526269979003296E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2874,17 +2994,17 @@
         <v>1.7648174904572529E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -2907,7 +3027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2935,7 +3055,7 @@
         <v>2.2353513060965946E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -2963,7 +3083,7 @@
         <v>2.2262079894659159E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2991,7 +3111,7 @@
         <v>1.1099532649333675E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -3023,4 +3143,347 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059B2FCFE2E7A6647B1AD101A7B6E6BBC" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="862eeb752dc283cdc17593b55b6d0b41">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="629cc87b-7ba6-404b-ab57-6ec14dace1d9" xmlns:ns4="e4f260e0-791c-4f8e-9db8-9284d27ff7db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a0d9e21dbe377d5072e8317876b4b9f" ns3:_="" ns4:_="">
+    <xsd:import namespace="629cc87b-7ba6-404b-ab57-6ec14dace1d9"/>
+    <xsd:import namespace="e4f260e0-791c-4f8e-9db8-9284d27ff7db"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MigrationWizId" minOccurs="0"/>
+                <xsd:element ref="ns3:MigrationWizIdPermissions" minOccurs="0"/>
+                <xsd:element ref="ns3:MigrationWizIdPermissionLevels" minOccurs="0"/>
+                <xsd:element ref="ns3:MigrationWizIdDocumentLibraryPermissions" minOccurs="0"/>
+                <xsd:element ref="ns3:MigrationWizIdSecurityGroups" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="629cc87b-7ba6-404b-ab57-6ec14dace1d9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MigrationWizId" ma:index="8" nillable="true" ma:displayName="MigrationWizId" ma:internalName="MigrationWizId">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MigrationWizIdPermissions" ma:index="9" nillable="true" ma:displayName="MigrationWizIdPermissions" ma:internalName="MigrationWizIdPermissions">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MigrationWizIdPermissionLevels" ma:index="10" nillable="true" ma:displayName="MigrationWizIdPermissionLevels" ma:internalName="MigrationWizIdPermissionLevels">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MigrationWizIdDocumentLibraryPermissions" ma:index="11" nillable="true" ma:displayName="MigrationWizIdDocumentLibraryPermissions" ma:internalName="MigrationWizIdDocumentLibraryPermissions">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MigrationWizIdSecurityGroups" ma:index="12" nillable="true" ma:displayName="MigrationWizIdSecurityGroups" ma:internalName="MigrationWizIdSecurityGroups">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="14" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="18" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="21" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="22" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="23" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="24" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="25" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="26" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="27" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="28" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="29" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e4f260e0-791c-4f8e-9db8-9284d27ff7db" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="17" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationWizIdDocumentLibraryPermissions xmlns="629cc87b-7ba6-404b-ab57-6ec14dace1d9" xsi:nil="true"/>
+    <MigrationWizId xmlns="629cc87b-7ba6-404b-ab57-6ec14dace1d9" xsi:nil="true"/>
+    <MigrationWizIdPermissionLevels xmlns="629cc87b-7ba6-404b-ab57-6ec14dace1d9" xsi:nil="true"/>
+    <MigrationWizIdSecurityGroups xmlns="629cc87b-7ba6-404b-ab57-6ec14dace1d9" xsi:nil="true"/>
+    <MigrationWizIdPermissions xmlns="629cc87b-7ba6-404b-ab57-6ec14dace1d9" xsi:nil="true"/>
+    <_activity xmlns="629cc87b-7ba6-404b-ab57-6ec14dace1d9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C985B21-0517-4070-8B4D-34E61DB826AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="629cc87b-7ba6-404b-ab57-6ec14dace1d9"/>
+    <ds:schemaRef ds:uri="e4f260e0-791c-4f8e-9db8-9284d27ff7db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ACF2D06-F764-4510-9657-28CCF6CE1766}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4AE9D09-618E-4F7A-BF60-64BAF90CAA51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="629cc87b-7ba6-404b-ab57-6ec14dace1d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e4f260e0-791c-4f8e-9db8-9284d27ff7db"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>